--- a/data/pca/factorExposure/factorExposure_2012-03-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01416276319928234</v>
+        <v>0.01489001213006472</v>
       </c>
       <c r="C2">
-        <v>0.03139402294760588</v>
+        <v>0.02658170606160099</v>
       </c>
       <c r="D2">
-        <v>-0.0008792943597739134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.004607858154772005</v>
+      </c>
+      <c r="E2">
+        <v>0.009957277970284057</v>
+      </c>
+      <c r="F2">
+        <v>-0.01221322788485905</v>
+      </c>
+      <c r="G2">
+        <v>-0.01694361195424121</v>
+      </c>
+      <c r="H2">
+        <v>0.05141461151839433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07312066370354026</v>
+        <v>0.08731780595353408</v>
       </c>
       <c r="C4">
-        <v>0.05185748910300537</v>
+        <v>0.03767206037324738</v>
       </c>
       <c r="D4">
-        <v>-0.08211545546004481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06563585560999495</v>
+      </c>
+      <c r="E4">
+        <v>0.01482769060578544</v>
+      </c>
+      <c r="F4">
+        <v>-0.03014652240724221</v>
+      </c>
+      <c r="G4">
+        <v>-0.002168748878720371</v>
+      </c>
+      <c r="H4">
+        <v>-0.04212351229684379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1072469666843592</v>
+        <v>0.11931986100679</v>
       </c>
       <c r="C6">
-        <v>0.05517862906892371</v>
+        <v>0.03456299476684944</v>
       </c>
       <c r="D6">
-        <v>0.003593232950440891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01125379493961589</v>
+      </c>
+      <c r="E6">
+        <v>-0.005058491411004101</v>
+      </c>
+      <c r="F6">
+        <v>-0.05344168526427211</v>
+      </c>
+      <c r="G6">
+        <v>-0.03408560589665564</v>
+      </c>
+      <c r="H6">
+        <v>0.1094758906393582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04974779384829276</v>
+        <v>0.06399112548266696</v>
       </c>
       <c r="C7">
-        <v>0.02947226617713845</v>
+        <v>0.02093432326168088</v>
       </c>
       <c r="D7">
-        <v>-0.04451303975903187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04516076923875568</v>
+      </c>
+      <c r="E7">
+        <v>0.03563356402994911</v>
+      </c>
+      <c r="F7">
+        <v>-0.03634014768840185</v>
+      </c>
+      <c r="G7">
+        <v>0.03578207806847195</v>
+      </c>
+      <c r="H7">
+        <v>-0.004308125148290137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03778684123946648</v>
+        <v>0.0405613428224109</v>
       </c>
       <c r="C8">
-        <v>0.01158337523413048</v>
+        <v>0.006862250480976034</v>
       </c>
       <c r="D8">
-        <v>-0.05294875315359172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0212539854806008</v>
+      </c>
+      <c r="E8">
+        <v>0.03423623629882846</v>
+      </c>
+      <c r="F8">
+        <v>-0.05028628020622612</v>
+      </c>
+      <c r="G8">
+        <v>-0.05739073690859058</v>
+      </c>
+      <c r="H8">
+        <v>0.005540527226773727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06667232178031526</v>
+        <v>0.07825604803992513</v>
       </c>
       <c r="C9">
-        <v>0.04224525436231519</v>
+        <v>0.02807148845688076</v>
       </c>
       <c r="D9">
-        <v>-0.07036832191208585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06344551153158642</v>
+      </c>
+      <c r="E9">
+        <v>0.03782879836880867</v>
+      </c>
+      <c r="F9">
+        <v>-0.03166306891040081</v>
+      </c>
+      <c r="G9">
+        <v>-0.007399103111348331</v>
+      </c>
+      <c r="H9">
+        <v>-0.04573565823553501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02927892895684725</v>
+        <v>0.0346498781683136</v>
       </c>
       <c r="C10">
-        <v>0.03331272876272589</v>
+        <v>0.04308387102381665</v>
       </c>
       <c r="D10">
-        <v>0.1810899789797504</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1745910197258848</v>
+      </c>
+      <c r="E10">
+        <v>0.04639448033429307</v>
+      </c>
+      <c r="F10">
+        <v>-0.04837126684761556</v>
+      </c>
+      <c r="G10">
+        <v>0.02826570374028118</v>
+      </c>
+      <c r="H10">
+        <v>0.04876422620074839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06946565067969518</v>
+        <v>0.07574027463567584</v>
       </c>
       <c r="C11">
-        <v>0.04770534342292331</v>
+        <v>0.02790367567031888</v>
       </c>
       <c r="D11">
-        <v>-0.05540726807415512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06264829753349427</v>
+      </c>
+      <c r="E11">
+        <v>-0.001918005298869529</v>
+      </c>
+      <c r="F11">
+        <v>-0.02811221269587773</v>
+      </c>
+      <c r="G11">
+        <v>0.006185380869811991</v>
+      </c>
+      <c r="H11">
+        <v>-0.08597627023574146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05816253105030874</v>
+        <v>0.06728134642467334</v>
       </c>
       <c r="C12">
-        <v>0.05283764421221457</v>
+        <v>0.03749070342414335</v>
       </c>
       <c r="D12">
-        <v>-0.04151313668277465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04766785523169438</v>
+      </c>
+      <c r="E12">
+        <v>0.01271853831044436</v>
+      </c>
+      <c r="F12">
+        <v>-0.0212946094720579</v>
+      </c>
+      <c r="G12">
+        <v>-0.001521692362174695</v>
+      </c>
+      <c r="H12">
+        <v>-0.04337778071473689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06018548094581303</v>
+        <v>0.06506596585193924</v>
       </c>
       <c r="C13">
-        <v>0.04034449675180434</v>
+        <v>0.02518702307485528</v>
       </c>
       <c r="D13">
-        <v>-0.05963148098901963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04280243140707533</v>
+      </c>
+      <c r="E13">
+        <v>0.0163927550584413</v>
+      </c>
+      <c r="F13">
+        <v>-0.00353127145495775</v>
+      </c>
+      <c r="G13">
+        <v>0.01191950488948318</v>
+      </c>
+      <c r="H13">
+        <v>-0.03871324348980003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03394411228213364</v>
+        <v>0.04144610239973736</v>
       </c>
       <c r="C14">
-        <v>0.03234455950421473</v>
+        <v>0.02776087481349091</v>
       </c>
       <c r="D14">
-        <v>0.0002757213364367354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.007027142799296201</v>
+      </c>
+      <c r="E14">
+        <v>0.03256210338022771</v>
+      </c>
+      <c r="F14">
+        <v>-0.01289853570179625</v>
+      </c>
+      <c r="G14">
+        <v>-0.00432854124519432</v>
+      </c>
+      <c r="H14">
+        <v>-0.05826781715865777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03999711290805111</v>
+        <v>0.03938199458918431</v>
       </c>
       <c r="C15">
-        <v>0.01145066280153085</v>
+        <v>0.003150997946107606</v>
       </c>
       <c r="D15">
-        <v>-0.01697390984513328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004460918529424085</v>
+      </c>
+      <c r="E15">
+        <v>0.04202344140846061</v>
+      </c>
+      <c r="F15">
+        <v>0.005920658465629737</v>
+      </c>
+      <c r="G15">
+        <v>-0.02495752231115779</v>
+      </c>
+      <c r="H15">
+        <v>-0.03687020012020271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06049807391505092</v>
+        <v>0.07015573957673461</v>
       </c>
       <c r="C16">
-        <v>0.04344346613410963</v>
+        <v>0.02851219755583299</v>
       </c>
       <c r="D16">
-        <v>-0.04465474954360123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06168965953402555</v>
+      </c>
+      <c r="E16">
+        <v>0.006163449709001689</v>
+      </c>
+      <c r="F16">
+        <v>-0.02510400131159239</v>
+      </c>
+      <c r="G16">
+        <v>0.004689038324887953</v>
+      </c>
+      <c r="H16">
+        <v>-0.05257734632323085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06354815267919353</v>
+        <v>0.06353593909192098</v>
       </c>
       <c r="C20">
-        <v>0.0314000771197341</v>
+        <v>0.01332985028455798</v>
       </c>
       <c r="D20">
-        <v>-0.04919425474089917</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0391792714455565</v>
+      </c>
+      <c r="E20">
+        <v>0.03265689288949655</v>
+      </c>
+      <c r="F20">
+        <v>-0.01972492538341522</v>
+      </c>
+      <c r="G20">
+        <v>-0.01100708535707549</v>
+      </c>
+      <c r="H20">
+        <v>-0.04338972901297908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0242363337096601</v>
+        <v>0.02459708052157087</v>
       </c>
       <c r="C21">
-        <v>-0.002391198385126217</v>
+        <v>-0.01038740520681728</v>
       </c>
       <c r="D21">
-        <v>-0.02276360726066127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02781476904715572</v>
+      </c>
+      <c r="E21">
+        <v>0.04203060912819806</v>
+      </c>
+      <c r="F21">
+        <v>0.0122264313401389</v>
+      </c>
+      <c r="G21">
+        <v>-0.00993269027722723</v>
+      </c>
+      <c r="H21">
+        <v>0.04722233646139089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07739148088613119</v>
+        <v>0.07273735007510163</v>
       </c>
       <c r="C22">
-        <v>0.06117885762483047</v>
+        <v>0.03966226728546613</v>
       </c>
       <c r="D22">
-        <v>-0.1024936128014306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.07027668852610039</v>
+      </c>
+      <c r="E22">
+        <v>0.571009147719385</v>
+      </c>
+      <c r="F22">
+        <v>0.2224326004454251</v>
+      </c>
+      <c r="G22">
+        <v>0.06720589625403574</v>
+      </c>
+      <c r="H22">
+        <v>0.1588237233988524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07835560103058797</v>
+        <v>0.07338036415692754</v>
       </c>
       <c r="C23">
-        <v>0.06008377265757714</v>
+        <v>0.03834810223797908</v>
       </c>
       <c r="D23">
-        <v>-0.1040986838311948</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.07112462377620382</v>
+      </c>
+      <c r="E23">
+        <v>0.5703924093075194</v>
+      </c>
+      <c r="F23">
+        <v>0.2210767279263882</v>
+      </c>
+      <c r="G23">
+        <v>0.06582012911345966</v>
+      </c>
+      <c r="H23">
+        <v>0.1538833995437787</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07058867293210103</v>
+        <v>0.07932813713035171</v>
       </c>
       <c r="C24">
-        <v>0.052044539103496</v>
+        <v>0.03386697137430194</v>
       </c>
       <c r="D24">
-        <v>-0.05747292954836475</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06013987197504865</v>
+      </c>
+      <c r="E24">
+        <v>0.01630334488432935</v>
+      </c>
+      <c r="F24">
+        <v>-0.03500009593927543</v>
+      </c>
+      <c r="G24">
+        <v>-0.009450573588753685</v>
+      </c>
+      <c r="H24">
+        <v>-0.05734919432906356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07046127626970038</v>
+        <v>0.07745579847491627</v>
       </c>
       <c r="C25">
-        <v>0.05713511518198288</v>
+        <v>0.03840977418413835</v>
       </c>
       <c r="D25">
-        <v>-0.06508629579953619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0526668164216824</v>
+      </c>
+      <c r="E25">
+        <v>0.02039417300355546</v>
+      </c>
+      <c r="F25">
+        <v>-0.02482960089011409</v>
+      </c>
+      <c r="G25">
+        <v>-0.01738023515570148</v>
+      </c>
+      <c r="H25">
+        <v>-0.058538791056239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04428294828224874</v>
+        <v>0.04698437464014442</v>
       </c>
       <c r="C26">
-        <v>0.01069509452568174</v>
+        <v>0.002820229961883308</v>
       </c>
       <c r="D26">
-        <v>-0.0128290510783444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01824729317462302</v>
+      </c>
+      <c r="E26">
+        <v>0.05347449159893723</v>
+      </c>
+      <c r="F26">
+        <v>-0.02241812384357189</v>
+      </c>
+      <c r="G26">
+        <v>0.008937453764443973</v>
+      </c>
+      <c r="H26">
+        <v>-0.05245809361925384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05176667201607819</v>
+        <v>0.06147794105765329</v>
       </c>
       <c r="C28">
-        <v>0.07474501109305746</v>
+        <v>0.08661895078518775</v>
       </c>
       <c r="D28">
-        <v>0.3137955934248148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3073437859875797</v>
+      </c>
+      <c r="E28">
+        <v>0.02616829298521695</v>
+      </c>
+      <c r="F28">
+        <v>-0.05376790302985664</v>
+      </c>
+      <c r="G28">
+        <v>-0.03377276767742467</v>
+      </c>
+      <c r="H28">
+        <v>0.03991913046331783</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03992879908463363</v>
+        <v>0.04809158791772603</v>
       </c>
       <c r="C29">
-        <v>0.03132279688581462</v>
+        <v>0.02611495645424654</v>
       </c>
       <c r="D29">
-        <v>-0.003143926590013448</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.006849405192041629</v>
+      </c>
+      <c r="E29">
+        <v>0.05491830276256491</v>
+      </c>
+      <c r="F29">
+        <v>-0.0009382647508465799</v>
+      </c>
+      <c r="G29">
+        <v>0.01206577332273607</v>
+      </c>
+      <c r="H29">
+        <v>-0.07913422404267649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1259552299016742</v>
+        <v>0.1319395413777045</v>
       </c>
       <c r="C30">
-        <v>0.09542022779348382</v>
+        <v>0.06477672716174994</v>
       </c>
       <c r="D30">
-        <v>-0.1133392149356849</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06858380037057793</v>
+      </c>
+      <c r="E30">
+        <v>0.083705804677862</v>
+      </c>
+      <c r="F30">
+        <v>0.02194948827386694</v>
+      </c>
+      <c r="G30">
+        <v>-0.07672292410599545</v>
+      </c>
+      <c r="H30">
+        <v>0.04081437456255759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04236161384902749</v>
+        <v>0.04860802612947154</v>
       </c>
       <c r="C31">
-        <v>0.02315503544251762</v>
+        <v>0.01503897211694339</v>
       </c>
       <c r="D31">
-        <v>-0.02732872143402118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02722267736550868</v>
+      </c>
+      <c r="E31">
+        <v>0.02821323150861768</v>
+      </c>
+      <c r="F31">
+        <v>-0.009423823781611114</v>
+      </c>
+      <c r="G31">
+        <v>0.03055254437055158</v>
+      </c>
+      <c r="H31">
+        <v>-0.06325967133379444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03824271390096561</v>
+        <v>0.03939427629290166</v>
       </c>
       <c r="C32">
-        <v>0.0255462205587016</v>
+        <v>0.01839385502744515</v>
       </c>
       <c r="D32">
-        <v>-0.02614241822100629</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01334857258168951</v>
+      </c>
+      <c r="E32">
+        <v>0.06935566409904777</v>
+      </c>
+      <c r="F32">
+        <v>0.01897294916752917</v>
+      </c>
+      <c r="G32">
+        <v>-0.02269925730591103</v>
+      </c>
+      <c r="H32">
+        <v>-0.06924886099484916</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08219963615094387</v>
+        <v>0.09513805580490847</v>
       </c>
       <c r="C33">
-        <v>0.04443770123083167</v>
+        <v>0.02717967282471028</v>
       </c>
       <c r="D33">
-        <v>-0.06436153523755189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0485021044598279</v>
+      </c>
+      <c r="E33">
+        <v>0.01452329226492822</v>
+      </c>
+      <c r="F33">
+        <v>-0.003523177742936761</v>
+      </c>
+      <c r="G33">
+        <v>0.008412948032647237</v>
+      </c>
+      <c r="H33">
+        <v>-0.05798753155661462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0558970903700099</v>
+        <v>0.06183845721425158</v>
       </c>
       <c r="C34">
-        <v>0.02873916176855655</v>
+        <v>0.01415549625245074</v>
       </c>
       <c r="D34">
-        <v>-0.05579028798322157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05422256427842416</v>
+      </c>
+      <c r="E34">
+        <v>0.009201851045481897</v>
+      </c>
+      <c r="F34">
+        <v>-0.01745989242640675</v>
+      </c>
+      <c r="G34">
+        <v>0.0009505337943847924</v>
+      </c>
+      <c r="H34">
+        <v>-0.05716035208769928</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03665432460444996</v>
+        <v>0.03953763266414884</v>
       </c>
       <c r="C35">
-        <v>0.009052790826534245</v>
+        <v>0.003789650565287219</v>
       </c>
       <c r="D35">
-        <v>-0.007408885061830716</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.008367356342000518</v>
+      </c>
+      <c r="E35">
+        <v>0.01979449824420552</v>
+      </c>
+      <c r="F35">
+        <v>0.01688849269823817</v>
+      </c>
+      <c r="G35">
+        <v>0.01375702835768695</v>
+      </c>
+      <c r="H35">
+        <v>-0.01824021352058776</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02114445797426672</v>
+        <v>0.02791940538578508</v>
       </c>
       <c r="C36">
-        <v>0.0174940464568324</v>
+        <v>0.01370140536814166</v>
       </c>
       <c r="D36">
-        <v>-0.02130259853602158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01543387837503896</v>
+      </c>
+      <c r="E36">
+        <v>0.04400092831549179</v>
+      </c>
+      <c r="F36">
+        <v>-0.01312685686546973</v>
+      </c>
+      <c r="G36">
+        <v>0.01085421055103436</v>
+      </c>
+      <c r="H36">
+        <v>-0.04466145745659383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03807452203963838</v>
+        <v>0.04354054290360759</v>
       </c>
       <c r="C38">
-        <v>0.003197667844577854</v>
+        <v>-0.0008651050562641253</v>
       </c>
       <c r="D38">
-        <v>-0.01909240698384628</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01698849549696898</v>
+      </c>
+      <c r="E38">
+        <v>0.05321626796271774</v>
+      </c>
+      <c r="F38">
+        <v>0.01421803641324243</v>
+      </c>
+      <c r="G38">
+        <v>-0.005024362856210854</v>
+      </c>
+      <c r="H38">
+        <v>-0.03495276821082095</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09115217173764141</v>
+        <v>0.1028708426485263</v>
       </c>
       <c r="C39">
-        <v>0.07450130558817666</v>
+        <v>0.05224014797271044</v>
       </c>
       <c r="D39">
-        <v>-0.05661341444441408</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05979035907130676</v>
+      </c>
+      <c r="E39">
+        <v>-0.0008919806350561112</v>
+      </c>
+      <c r="F39">
+        <v>-0.003302933277495942</v>
+      </c>
+      <c r="G39">
+        <v>-0.0294529283269319</v>
+      </c>
+      <c r="H39">
+        <v>-0.04826772359217379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07429442715879835</v>
+        <v>0.07143830866480889</v>
       </c>
       <c r="C40">
-        <v>0.0414731789112477</v>
+        <v>0.02031332383763042</v>
       </c>
       <c r="D40">
-        <v>0.003714651502931712</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01185807778473918</v>
+      </c>
+      <c r="E40">
+        <v>0.0220501203704471</v>
+      </c>
+      <c r="F40">
+        <v>0.05635188890196673</v>
+      </c>
+      <c r="G40">
+        <v>-0.05537147314959033</v>
+      </c>
+      <c r="H40">
+        <v>0.1018406623365687</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04065314562881012</v>
+        <v>0.04326228473399758</v>
       </c>
       <c r="C41">
-        <v>0.00592321681231848</v>
+        <v>-0.0020115021715718</v>
       </c>
       <c r="D41">
-        <v>-0.03846240393289112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03517747139336575</v>
+      </c>
+      <c r="E41">
+        <v>0.005464425227800731</v>
+      </c>
+      <c r="F41">
+        <v>0.0160212958055688</v>
+      </c>
+      <c r="G41">
+        <v>-0.008556213466904813</v>
+      </c>
+      <c r="H41">
+        <v>-0.03414657567140834</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04705422776284289</v>
+        <v>0.05755732135927506</v>
       </c>
       <c r="C43">
-        <v>0.0261958423756418</v>
+        <v>0.01778593762535991</v>
       </c>
       <c r="D43">
-        <v>-0.01923631430704557</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02611851529321807</v>
+      </c>
+      <c r="E43">
+        <v>0.01964412698263513</v>
+      </c>
+      <c r="F43">
+        <v>-0.01062087109656481</v>
+      </c>
+      <c r="G43">
+        <v>0.02026266262667499</v>
+      </c>
+      <c r="H43">
+        <v>-0.05217854132707373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09260939560764629</v>
+        <v>0.09550426383684804</v>
       </c>
       <c r="C44">
-        <v>0.09304655071808537</v>
+        <v>0.06565032770864328</v>
       </c>
       <c r="D44">
-        <v>-0.08221922820084962</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05936098072543308</v>
+      </c>
+      <c r="E44">
+        <v>0.09193363505869663</v>
+      </c>
+      <c r="F44">
+        <v>-0.03974795402687077</v>
+      </c>
+      <c r="G44">
+        <v>-0.0282618020365559</v>
+      </c>
+      <c r="H44">
+        <v>-0.02042507021934207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02444809721141308</v>
+        <v>0.03292494535550744</v>
       </c>
       <c r="C46">
-        <v>0.01428780144180905</v>
+        <v>0.01154515111801453</v>
       </c>
       <c r="D46">
-        <v>-0.02097149818460143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03302873718501408</v>
+      </c>
+      <c r="E46">
+        <v>0.02952117981699561</v>
+      </c>
+      <c r="F46">
+        <v>-0.01401656202189035</v>
+      </c>
+      <c r="G46">
+        <v>0.004742876101763992</v>
+      </c>
+      <c r="H46">
+        <v>-0.03830980706869703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03014401735080449</v>
+        <v>0.03818181184974785</v>
       </c>
       <c r="C47">
-        <v>0.02483572261164216</v>
+        <v>0.02051217393783577</v>
       </c>
       <c r="D47">
-        <v>-0.01103353736552408</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.009419058866721385</v>
+      </c>
+      <c r="E47">
+        <v>0.05083727934150652</v>
+      </c>
+      <c r="F47">
+        <v>-0.007596323311980053</v>
+      </c>
+      <c r="G47">
+        <v>0.04392212984096833</v>
+      </c>
+      <c r="H47">
+        <v>-0.02339412924815535</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03152378281669043</v>
+        <v>0.03740060617849206</v>
       </c>
       <c r="C48">
-        <v>0.01791527041707571</v>
+        <v>0.01168169553046441</v>
       </c>
       <c r="D48">
-        <v>-0.03063033371202922</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01880728194602723</v>
+      </c>
+      <c r="E48">
+        <v>0.04337954794202826</v>
+      </c>
+      <c r="F48">
+        <v>-0.002412448475284117</v>
+      </c>
+      <c r="G48">
+        <v>-0.01101416742981818</v>
+      </c>
+      <c r="H48">
+        <v>-0.04131796260842281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1626179156990557</v>
+        <v>0.1900341525338696</v>
       </c>
       <c r="C49">
-        <v>0.0629863655028649</v>
+        <v>0.03671510869729042</v>
       </c>
       <c r="D49">
-        <v>0.01756003726600925</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02738023916967211</v>
+      </c>
+      <c r="E49">
+        <v>-0.1512958563201438</v>
+      </c>
+      <c r="F49">
+        <v>-0.07752391045279418</v>
+      </c>
+      <c r="G49">
+        <v>0.0469163483917457</v>
+      </c>
+      <c r="H49">
+        <v>0.2373841924394051</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03898044928425023</v>
+        <v>0.04602167897106783</v>
       </c>
       <c r="C50">
-        <v>0.02641226288876041</v>
+        <v>0.01897610447906732</v>
       </c>
       <c r="D50">
-        <v>-0.03706608249018515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03064022200433303</v>
+      </c>
+      <c r="E50">
+        <v>0.05105188426503848</v>
+      </c>
+      <c r="F50">
+        <v>-0.01134099492119999</v>
+      </c>
+      <c r="G50">
+        <v>0.02472217916270352</v>
+      </c>
+      <c r="H50">
+        <v>-0.06097212094311923</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0245492761374638</v>
+        <v>0.02926887934742614</v>
       </c>
       <c r="C51">
-        <v>0.007807942768951592</v>
+        <v>0.003832088090243913</v>
       </c>
       <c r="D51">
-        <v>-0.01638103116577923</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01305572579194276</v>
+      </c>
+      <c r="E51">
+        <v>0.01355937087306794</v>
+      </c>
+      <c r="F51">
+        <v>-0.01867178595087287</v>
+      </c>
+      <c r="G51">
+        <v>0.001633064560212972</v>
+      </c>
+      <c r="H51">
+        <v>0.00233777169625262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.151737184438105</v>
+        <v>0.1624856137377889</v>
       </c>
       <c r="C53">
-        <v>0.07988836024274899</v>
+        <v>0.05278440166466382</v>
       </c>
       <c r="D53">
-        <v>-0.02562024702676606</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01946341160654349</v>
+      </c>
+      <c r="E53">
+        <v>-0.02730918636421662</v>
+      </c>
+      <c r="F53">
+        <v>-0.01785074513816451</v>
+      </c>
+      <c r="G53">
+        <v>0.02678562719283098</v>
+      </c>
+      <c r="H53">
+        <v>-0.175467030091197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05476062866864816</v>
+        <v>0.05758222311917909</v>
       </c>
       <c r="C54">
-        <v>0.02669925014323146</v>
+        <v>0.01511247840132394</v>
       </c>
       <c r="D54">
-        <v>-0.02197062990631897</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01725579437149085</v>
+      </c>
+      <c r="E54">
+        <v>0.05171101083885451</v>
+      </c>
+      <c r="F54">
+        <v>-0.005400111619655017</v>
+      </c>
+      <c r="G54">
+        <v>-0.010082440649438</v>
+      </c>
+      <c r="H54">
+        <v>-0.04829228925722847</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09922039461384455</v>
+        <v>0.1035132808395012</v>
       </c>
       <c r="C55">
-        <v>0.05462363455332877</v>
+        <v>0.03462988645490605</v>
       </c>
       <c r="D55">
-        <v>-0.02636002081673352</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02279543542919361</v>
+      </c>
+      <c r="E55">
+        <v>0.01805082482842946</v>
+      </c>
+      <c r="F55">
+        <v>-0.01528365737884923</v>
+      </c>
+      <c r="G55">
+        <v>0.0199392854149302</v>
+      </c>
+      <c r="H55">
+        <v>-0.150636482714765</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.147656992922749</v>
+        <v>0.1608809175811898</v>
       </c>
       <c r="C56">
-        <v>0.09132927482156114</v>
+        <v>0.06400824022643602</v>
       </c>
       <c r="D56">
-        <v>-0.02232147070501477</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01892531257099104</v>
+      </c>
+      <c r="E56">
+        <v>-0.02587660368497486</v>
+      </c>
+      <c r="F56">
+        <v>-0.03709923186694544</v>
+      </c>
+      <c r="G56">
+        <v>0.0376146435910364</v>
+      </c>
+      <c r="H56">
+        <v>-0.1755265558737096</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1270473966190365</v>
+        <v>0.09766487052386179</v>
       </c>
       <c r="C58">
-        <v>0.008028983984397928</v>
+        <v>-0.03632741567544171</v>
       </c>
       <c r="D58">
-        <v>-0.02906968408374289</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.04257099900890581</v>
+      </c>
+      <c r="E58">
+        <v>0.1702661522691978</v>
+      </c>
+      <c r="F58">
+        <v>0.01390495493205471</v>
+      </c>
+      <c r="G58">
+        <v>0.02905952313644515</v>
+      </c>
+      <c r="H58">
+        <v>0.2408974934964951</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1198657542760076</v>
+        <v>0.1371839848671526</v>
       </c>
       <c r="C59">
-        <v>0.08012215476702822</v>
+        <v>0.08729383515774035</v>
       </c>
       <c r="D59">
-        <v>0.3533407106146888</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3634684332299296</v>
+      </c>
+      <c r="E59">
+        <v>0.02450631347788892</v>
+      </c>
+      <c r="F59">
+        <v>-0.02023786372334802</v>
+      </c>
+      <c r="G59">
+        <v>0.02383401835773984</v>
+      </c>
+      <c r="H59">
+        <v>0.004955858905375437</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2006575938306067</v>
+        <v>0.2320611232934082</v>
       </c>
       <c r="C60">
-        <v>0.1032244779294812</v>
+        <v>0.06833576927184175</v>
       </c>
       <c r="D60">
-        <v>-0.01048112672938444</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03994925748963499</v>
+      </c>
+      <c r="E60">
+        <v>-0.09610259576987162</v>
+      </c>
+      <c r="F60">
+        <v>-0.0667033235094512</v>
+      </c>
+      <c r="G60">
+        <v>-0.03080987518469808</v>
+      </c>
+      <c r="H60">
+        <v>0.1536616550044584</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07959588785921985</v>
+        <v>0.088882619156746</v>
       </c>
       <c r="C61">
-        <v>0.05354465499464796</v>
+        <v>0.03810712043813057</v>
       </c>
       <c r="D61">
-        <v>-0.04263018794945045</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04087058285700376</v>
+      </c>
+      <c r="E61">
+        <v>-0.002928281163314211</v>
+      </c>
+      <c r="F61">
+        <v>-0.002733550587764316</v>
+      </c>
+      <c r="G61">
+        <v>0.004539175882985137</v>
+      </c>
+      <c r="H61">
+        <v>-0.06507832495506467</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1294201302877608</v>
+        <v>0.1397886765931939</v>
       </c>
       <c r="C62">
-        <v>0.06665925088097485</v>
+        <v>0.04152054864595955</v>
       </c>
       <c r="D62">
-        <v>-0.03117359963121962</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03181821294644025</v>
+      </c>
+      <c r="E62">
+        <v>-0.06191154182521368</v>
+      </c>
+      <c r="F62">
+        <v>-0.01553388733128171</v>
+      </c>
+      <c r="G62">
+        <v>-0.004575628621489517</v>
+      </c>
+      <c r="H62">
+        <v>-0.1969380381586745</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05068467916167201</v>
+        <v>0.05019068237736117</v>
       </c>
       <c r="C63">
-        <v>0.02504849966576643</v>
+        <v>0.01288217346464453</v>
       </c>
       <c r="D63">
-        <v>-0.02184551030200953</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02096204918943426</v>
+      </c>
+      <c r="E63">
+        <v>0.05329896916315335</v>
+      </c>
+      <c r="F63">
+        <v>0.01332699100140579</v>
+      </c>
+      <c r="G63">
+        <v>-0.02086924063036617</v>
+      </c>
+      <c r="H63">
+        <v>-0.05685203764742897</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1040604584201536</v>
+        <v>0.1086951895038785</v>
       </c>
       <c r="C64">
-        <v>0.02414173295573636</v>
+        <v>0.004390262564882726</v>
       </c>
       <c r="D64">
-        <v>-0.06077566360487967</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04091186988161966</v>
+      </c>
+      <c r="E64">
+        <v>0.04854018338668893</v>
+      </c>
+      <c r="F64">
+        <v>-0.04296248822721589</v>
+      </c>
+      <c r="G64">
+        <v>-0.0451854707523324</v>
+      </c>
+      <c r="H64">
+        <v>-0.06220560314046536</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.121503506999199</v>
+        <v>0.1260700888209742</v>
       </c>
       <c r="C65">
-        <v>0.06114709691677475</v>
+        <v>0.03902829651463811</v>
       </c>
       <c r="D65">
-        <v>0.01609606241799319</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.004334260933370928</v>
+      </c>
+      <c r="E65">
+        <v>0.01167763567281678</v>
+      </c>
+      <c r="F65">
+        <v>-0.05177899847697066</v>
+      </c>
+      <c r="G65">
+        <v>-0.06295532043209606</v>
+      </c>
+      <c r="H65">
+        <v>0.1399224596502358</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1435983470559663</v>
+        <v>0.1547519844036381</v>
       </c>
       <c r="C66">
-        <v>0.08075628863325332</v>
+        <v>0.04947972651442295</v>
       </c>
       <c r="D66">
-        <v>-0.1084129363358099</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09398978392448563</v>
+      </c>
+      <c r="E66">
+        <v>-0.03168892509173848</v>
+      </c>
+      <c r="F66">
+        <v>-0.01670255247192417</v>
+      </c>
+      <c r="G66">
+        <v>-0.04017475122396388</v>
+      </c>
+      <c r="H66">
+        <v>-0.1230940109135054</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07036794101908343</v>
+        <v>0.08300454333072402</v>
       </c>
       <c r="C67">
-        <v>0.01364097854627659</v>
+        <v>0.005480947839871935</v>
       </c>
       <c r="D67">
-        <v>-0.02421604466916489</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03026219884518228</v>
+      </c>
+      <c r="E67">
+        <v>0.02282969525419954</v>
+      </c>
+      <c r="F67">
+        <v>-0.01707710760002359</v>
+      </c>
+      <c r="G67">
+        <v>0.01328928473037124</v>
+      </c>
+      <c r="H67">
+        <v>-0.03723479110665604</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05902352358542994</v>
+        <v>0.05738281373672634</v>
       </c>
       <c r="C68">
-        <v>0.05118931071874597</v>
+        <v>0.05898742442851949</v>
       </c>
       <c r="D68">
-        <v>0.2529915590617375</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.269112304071244</v>
+      </c>
+      <c r="E68">
+        <v>0.03606650697582204</v>
+      </c>
+      <c r="F68">
+        <v>-0.01472160448490003</v>
+      </c>
+      <c r="G68">
+        <v>0.0151381515935796</v>
+      </c>
+      <c r="H68">
+        <v>-0.003241377324857863</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05227380933093391</v>
+        <v>0.05318548491490338</v>
       </c>
       <c r="C69">
-        <v>0.01833571574808218</v>
+        <v>0.006193038956379055</v>
       </c>
       <c r="D69">
-        <v>-0.01738380192682498</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.014937465929626</v>
+      </c>
+      <c r="E69">
+        <v>0.02538621065129776</v>
+      </c>
+      <c r="F69">
+        <v>0.009286419017662631</v>
+      </c>
+      <c r="G69">
+        <v>0.02273971927639243</v>
+      </c>
+      <c r="H69">
+        <v>-0.04778302663653326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004868962833437697</v>
+        <v>0.02733560720921538</v>
       </c>
       <c r="C70">
-        <v>-0.006202594417912623</v>
+        <v>-0.001286746065190545</v>
       </c>
       <c r="D70">
-        <v>0.0007207002444450006</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.005294394586976207</v>
+      </c>
+      <c r="E70">
+        <v>-0.02399750373538159</v>
+      </c>
+      <c r="F70">
+        <v>-0.02041300149396141</v>
+      </c>
+      <c r="G70">
+        <v>0.02168984683216987</v>
+      </c>
+      <c r="H70">
+        <v>0.03264474586810415</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05899409074548234</v>
+        <v>0.06037824873758729</v>
       </c>
       <c r="C71">
-        <v>0.05138650865527215</v>
+        <v>0.06312953974434697</v>
       </c>
       <c r="D71">
-        <v>0.2943010706258604</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2952542646403424</v>
+      </c>
+      <c r="E71">
+        <v>0.03231990598126785</v>
+      </c>
+      <c r="F71">
+        <v>-0.04302653439084488</v>
+      </c>
+      <c r="G71">
+        <v>0.00412191437430289</v>
+      </c>
+      <c r="H71">
+        <v>-0.008389867050018006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1375605179476603</v>
+        <v>0.1458184340386845</v>
       </c>
       <c r="C72">
-        <v>0.06466595449803664</v>
+        <v>0.03650444114028899</v>
       </c>
       <c r="D72">
-        <v>0.001996171116921879</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008317673050586682</v>
+      </c>
+      <c r="E72">
+        <v>-0.1097223101935674</v>
+      </c>
+      <c r="F72">
+        <v>0.1581753246446645</v>
+      </c>
+      <c r="G72">
+        <v>-0.1219036196665913</v>
+      </c>
+      <c r="H72">
+        <v>-0.02238224349458538</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2732570487487951</v>
+        <v>0.287666874927282</v>
       </c>
       <c r="C73">
-        <v>0.1129968303760209</v>
+        <v>0.04742423171933403</v>
       </c>
       <c r="D73">
-        <v>-0.04693421095322014</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09895630564410318</v>
+      </c>
+      <c r="E73">
+        <v>-0.2159119868673562</v>
+      </c>
+      <c r="F73">
+        <v>-0.1221746343048339</v>
+      </c>
+      <c r="G73">
+        <v>0.1277248818281077</v>
+      </c>
+      <c r="H73">
+        <v>0.4926864857118918</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07954670238899418</v>
+        <v>0.0924163427396625</v>
       </c>
       <c r="C74">
-        <v>0.07781047791198689</v>
+        <v>0.06067238894119423</v>
       </c>
       <c r="D74">
-        <v>-0.01395042412140577</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02895230200606798</v>
+      </c>
+      <c r="E74">
+        <v>-0.005086476583597253</v>
+      </c>
+      <c r="F74">
+        <v>8.835391711872984e-05</v>
+      </c>
+      <c r="G74">
+        <v>0.06177525374031145</v>
+      </c>
+      <c r="H74">
+        <v>-0.1151191182830134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09462288563187209</v>
+        <v>0.09979649031811513</v>
       </c>
       <c r="C75">
-        <v>0.05492446235579299</v>
+        <v>0.02957616168892778</v>
       </c>
       <c r="D75">
-        <v>-0.008024347143040766</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01476559135418208</v>
+      </c>
+      <c r="E75">
+        <v>0.007236994084320281</v>
+      </c>
+      <c r="F75">
+        <v>-0.02649525737273786</v>
+      </c>
+      <c r="G75">
+        <v>0.0273406697350429</v>
+      </c>
+      <c r="H75">
+        <v>-0.1146764223525542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1304658989828063</v>
+        <v>0.1406400338020762</v>
       </c>
       <c r="C76">
-        <v>0.0847390769449944</v>
+        <v>0.05778242182269989</v>
       </c>
       <c r="D76">
-        <v>-0.05488833924657417</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05097040176425413</v>
+      </c>
+      <c r="E76">
+        <v>0.02840168501854708</v>
+      </c>
+      <c r="F76">
+        <v>-0.04543496511133623</v>
+      </c>
+      <c r="G76">
+        <v>0.0257309159546679</v>
+      </c>
+      <c r="H76">
+        <v>-0.1981578982030618</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.111719076160754</v>
+        <v>0.1074405886866258</v>
       </c>
       <c r="C77">
-        <v>0.01956965937992874</v>
+        <v>-0.008740109855311975</v>
       </c>
       <c r="D77">
-        <v>-0.05238864663455383</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02003063253905013</v>
+      </c>
+      <c r="E77">
+        <v>0.03900562477325273</v>
+      </c>
+      <c r="F77">
+        <v>-0.1089251743399884</v>
+      </c>
+      <c r="G77">
+        <v>-0.894719244831868</v>
+      </c>
+      <c r="H77">
+        <v>0.06257951796466073</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0991263765524962</v>
+        <v>0.1388639791861839</v>
       </c>
       <c r="C78">
-        <v>0.04082660120001052</v>
+        <v>0.03419995070250742</v>
       </c>
       <c r="D78">
-        <v>-0.08328352007262173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08401863252150325</v>
+      </c>
+      <c r="E78">
+        <v>0.05599124360070807</v>
+      </c>
+      <c r="F78">
+        <v>-0.03780549935510925</v>
+      </c>
+      <c r="G78">
+        <v>-0.08901593614356371</v>
+      </c>
+      <c r="H78">
+        <v>0.0460598431375794</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1468113212353517</v>
+        <v>0.1514775166404193</v>
       </c>
       <c r="C79">
-        <v>0.07711541598076069</v>
+        <v>0.04410963881768646</v>
       </c>
       <c r="D79">
-        <v>-0.02981805778382025</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02783468031070341</v>
+      </c>
+      <c r="E79">
+        <v>-0.0126778786702255</v>
+      </c>
+      <c r="F79">
+        <v>-0.01897121416900983</v>
+      </c>
+      <c r="G79">
+        <v>0.04360340591502595</v>
+      </c>
+      <c r="H79">
+        <v>-0.173215142520595</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04622862199471242</v>
+        <v>0.04368271142813916</v>
       </c>
       <c r="C80">
-        <v>0.01588211282537249</v>
+        <v>0.005807236792609734</v>
       </c>
       <c r="D80">
-        <v>-0.02829916643262465</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01835845776657321</v>
+      </c>
+      <c r="E80">
+        <v>-0.0100972455485714</v>
+      </c>
+      <c r="F80">
+        <v>0.00494560927931158</v>
+      </c>
+      <c r="G80">
+        <v>0.03500569880031044</v>
+      </c>
+      <c r="H80">
+        <v>-0.03468491230241039</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1147173033922557</v>
+        <v>0.1205036424334914</v>
       </c>
       <c r="C81">
-        <v>0.06473718231513799</v>
+        <v>0.03869159267599605</v>
       </c>
       <c r="D81">
-        <v>-0.0320683210539712</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02321756043817101</v>
+      </c>
+      <c r="E81">
+        <v>0.02469742199890851</v>
+      </c>
+      <c r="F81">
+        <v>-0.01656784058235799</v>
+      </c>
+      <c r="G81">
+        <v>0.06539126654369526</v>
+      </c>
+      <c r="H81">
+        <v>-0.1467755428922846</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1313019200608681</v>
+        <v>0.1320089139272125</v>
       </c>
       <c r="C82">
-        <v>0.08106347809454281</v>
+        <v>0.05200617353929702</v>
       </c>
       <c r="D82">
-        <v>-0.01786000066113764</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02676695427185641</v>
+      </c>
+      <c r="E82">
+        <v>-0.01500808815406079</v>
+      </c>
+      <c r="F82">
+        <v>-0.05687216599436769</v>
+      </c>
+      <c r="G82">
+        <v>0.05965794994309901</v>
+      </c>
+      <c r="H82">
+        <v>-0.2105711237298824</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07708491856790849</v>
+        <v>0.08782863907149133</v>
       </c>
       <c r="C83">
-        <v>-0.008649685471306684</v>
+        <v>-0.02338622406111298</v>
       </c>
       <c r="D83">
-        <v>-0.02542387358812827</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03206932587601664</v>
+      </c>
+      <c r="E83">
+        <v>0.02354523837501742</v>
+      </c>
+      <c r="F83">
+        <v>-0.05083726579162404</v>
+      </c>
+      <c r="G83">
+        <v>0.07994955099717178</v>
+      </c>
+      <c r="H83">
+        <v>0.05780964613927773</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02586176196205092</v>
+        <v>0.03596885512455623</v>
       </c>
       <c r="C84">
-        <v>0.0265998633913252</v>
+        <v>0.02165840044345639</v>
       </c>
       <c r="D84">
-        <v>-0.0317980093620189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03202886139509965</v>
+      </c>
+      <c r="E84">
+        <v>0.02585123327080335</v>
+      </c>
+      <c r="F84">
+        <v>0.04945986119078726</v>
+      </c>
+      <c r="G84">
+        <v>0.06251329071871931</v>
+      </c>
+      <c r="H84">
+        <v>0.005148784962639871</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1202317584930788</v>
+        <v>0.1209170571928571</v>
       </c>
       <c r="C85">
-        <v>0.05783745799726337</v>
+        <v>0.02926677607322684</v>
       </c>
       <c r="D85">
-        <v>-0.02024340958984247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02243995872797464</v>
+      </c>
+      <c r="E85">
+        <v>0.02380757404284954</v>
+      </c>
+      <c r="F85">
+        <v>-0.0411710864185766</v>
+      </c>
+      <c r="G85">
+        <v>0.03472088761587543</v>
+      </c>
+      <c r="H85">
+        <v>-0.1505060025478248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05072057159948337</v>
+        <v>0.05845077156618184</v>
       </c>
       <c r="C86">
-        <v>0.03144329799437975</v>
+        <v>0.02000128455994229</v>
       </c>
       <c r="D86">
-        <v>-0.02208558742388202</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02489999521473114</v>
+      </c>
+      <c r="E86">
+        <v>0.0662598628623496</v>
+      </c>
+      <c r="F86">
+        <v>-0.02691198916688925</v>
+      </c>
+      <c r="G86">
+        <v>0.02303685367359576</v>
+      </c>
+      <c r="H86">
+        <v>0.01376708890862767</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1182371506566206</v>
+        <v>0.1225422977207362</v>
       </c>
       <c r="C87">
-        <v>0.07264022118677697</v>
+        <v>0.03865831811364406</v>
       </c>
       <c r="D87">
-        <v>-0.07282659243957229</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07058762603064465</v>
+      </c>
+      <c r="E87">
+        <v>0.02628246680498639</v>
+      </c>
+      <c r="F87">
+        <v>-0.0008389734015210418</v>
+      </c>
+      <c r="G87">
+        <v>-0.129942601473961</v>
+      </c>
+      <c r="H87">
+        <v>0.03852388689466644</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05307310001135801</v>
+        <v>0.06036941908923586</v>
       </c>
       <c r="C88">
-        <v>0.02932565399834821</v>
+        <v>0.01856632198537547</v>
       </c>
       <c r="D88">
-        <v>-0.01978534705664684</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03331809074133831</v>
+      </c>
+      <c r="E88">
+        <v>0.02151749197780007</v>
+      </c>
+      <c r="F88">
+        <v>-0.006024193447491755</v>
+      </c>
+      <c r="G88">
+        <v>-0.003639686003945058</v>
+      </c>
+      <c r="H88">
+        <v>-0.05430764632278218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08391160946054525</v>
+        <v>0.09357540418231636</v>
       </c>
       <c r="C89">
-        <v>0.06959062951663293</v>
+        <v>0.08201744280189588</v>
       </c>
       <c r="D89">
-        <v>0.3266386959346506</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3481395342978525</v>
+      </c>
+      <c r="E89">
+        <v>0.06945248796761044</v>
+      </c>
+      <c r="F89">
+        <v>-0.0823462130039631</v>
+      </c>
+      <c r="G89">
+        <v>0.02591827040870338</v>
+      </c>
+      <c r="H89">
+        <v>-0.01197200722328538</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07456077865877166</v>
+        <v>0.07914702540468001</v>
       </c>
       <c r="C90">
-        <v>0.06133179642801816</v>
+        <v>0.06955403332155002</v>
       </c>
       <c r="D90">
-        <v>0.3219144779801629</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.307161691119805</v>
+      </c>
+      <c r="E90">
+        <v>0.06180272645811937</v>
+      </c>
+      <c r="F90">
+        <v>0.001542000610311166</v>
+      </c>
+      <c r="G90">
+        <v>0.004952145796266781</v>
+      </c>
+      <c r="H90">
+        <v>-0.004615480128555431</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08614477183712188</v>
+        <v>0.0897459477147072</v>
       </c>
       <c r="C91">
-        <v>0.05675892629187532</v>
+        <v>0.0344502473771949</v>
       </c>
       <c r="D91">
-        <v>-0.03329970257494903</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03159642641607302</v>
+      </c>
+      <c r="E91">
+        <v>0.01427587854064706</v>
+      </c>
+      <c r="F91">
+        <v>-0.006634926014763122</v>
+      </c>
+      <c r="G91">
+        <v>0.05402677126900088</v>
+      </c>
+      <c r="H91">
+        <v>-0.07558546449793498</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07505040777237844</v>
+        <v>0.07880759650216845</v>
       </c>
       <c r="C92">
-        <v>0.07252933175027482</v>
+        <v>0.08287740268597203</v>
       </c>
       <c r="D92">
-        <v>0.3415577501072173</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3446741248354486</v>
+      </c>
+      <c r="E92">
+        <v>0.04457667724125736</v>
+      </c>
+      <c r="F92">
+        <v>-0.03958831944515394</v>
+      </c>
+      <c r="G92">
+        <v>-0.01043113444265046</v>
+      </c>
+      <c r="H92">
+        <v>-0.01537742127598679</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06494474775412851</v>
+        <v>0.07589973252507715</v>
       </c>
       <c r="C93">
-        <v>0.06559590982870685</v>
+        <v>0.08039543325091997</v>
       </c>
       <c r="D93">
-        <v>0.3133753989828418</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3046220522146412</v>
+      </c>
+      <c r="E93">
+        <v>0.03842084607881297</v>
+      </c>
+      <c r="F93">
+        <v>-0.03776601478855088</v>
+      </c>
+      <c r="G93">
+        <v>-0.01547929135888597</v>
+      </c>
+      <c r="H93">
+        <v>0.01059425743941083</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1322340164490965</v>
+        <v>0.1267303306563352</v>
       </c>
       <c r="C94">
-        <v>0.05693858064169797</v>
+        <v>0.0218207994826431</v>
       </c>
       <c r="D94">
-        <v>-0.04674567055639078</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04863759595088875</v>
+      </c>
+      <c r="E94">
+        <v>-0.004969564318150989</v>
+      </c>
+      <c r="F94">
+        <v>-0.02186490059428755</v>
+      </c>
+      <c r="G94">
+        <v>0.06255014690020873</v>
+      </c>
+      <c r="H94">
+        <v>-0.09411854578890551</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1203566053345711</v>
+        <v>0.126800302242572</v>
       </c>
       <c r="C95">
-        <v>0.03253307685522035</v>
+        <v>0.003712494009172992</v>
       </c>
       <c r="D95">
-        <v>-0.05968888468652642</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07107378498578491</v>
+      </c>
+      <c r="E95">
+        <v>0.01466145537220675</v>
+      </c>
+      <c r="F95">
+        <v>-0.04140969152414687</v>
+      </c>
+      <c r="G95">
+        <v>-0.02706843786545011</v>
+      </c>
+      <c r="H95">
+        <v>0.05848984963505328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2131308304192821</v>
+        <v>0.2093866704782412</v>
       </c>
       <c r="C97">
-        <v>0.04886666548065598</v>
+        <v>0.002652474467034914</v>
       </c>
       <c r="D97">
-        <v>0.09870930872414151</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08768128223522663</v>
+      </c>
+      <c r="E97">
+        <v>-0.2988461061283505</v>
+      </c>
+      <c r="F97">
+        <v>0.8743908776285623</v>
+      </c>
+      <c r="G97">
+        <v>-0.07261555919960089</v>
+      </c>
+      <c r="H97">
+        <v>-0.01425235466112055</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2436740611217975</v>
+        <v>0.2754478953282933</v>
       </c>
       <c r="C98">
-        <v>0.07499384627338011</v>
+        <v>0.03402008135150551</v>
       </c>
       <c r="D98">
-        <v>-0.04842224159804393</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05877156873795102</v>
+      </c>
+      <c r="E98">
+        <v>-0.1762984826102929</v>
+      </c>
+      <c r="F98">
+        <v>-0.08688965009669349</v>
+      </c>
+      <c r="G98">
+        <v>0.2229786452811387</v>
+      </c>
+      <c r="H98">
+        <v>0.2436926850037729</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4550295279787941</v>
+        <v>0.2870885707966527</v>
       </c>
       <c r="C99">
-        <v>-0.8742444883116477</v>
+        <v>-0.9330986638679655</v>
       </c>
       <c r="D99">
-        <v>0.05221659504405395</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1348736378850253</v>
+      </c>
+      <c r="E99">
+        <v>0.06630516247323172</v>
+      </c>
+      <c r="F99">
+        <v>-0.04770123462146444</v>
+      </c>
+      <c r="G99">
+        <v>0.02457936756355339</v>
+      </c>
+      <c r="H99">
+        <v>-0.06454045834904035</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03971581671333364</v>
+        <v>0.04800763818137767</v>
       </c>
       <c r="C101">
-        <v>0.0313159567166617</v>
+        <v>0.026295832514209</v>
       </c>
       <c r="D101">
-        <v>-0.003913625636709314</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.007079433751021833</v>
+      </c>
+      <c r="E101">
+        <v>0.05424098266733512</v>
+      </c>
+      <c r="F101">
+        <v>-0.0007405851020262993</v>
+      </c>
+      <c r="G101">
+        <v>0.01246804832547025</v>
+      </c>
+      <c r="H101">
+        <v>-0.07810593990507432</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
